--- a/static/templates/Good-Moral-Certificate-Template.xlsx
+++ b/static/templates/Good-Moral-Certificate-Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\web2py_src\web2py\applications\ors\static\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\web2py_win_py37\web2py\applications\ors\static\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2722AA2-500F-4ABB-BD51-E961A301AAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C6ACB2-EA1E-43C9-A1B0-41208F7392B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,9 +42,6 @@
     <t>TO WHOM IT MAY CONCERN:</t>
   </si>
   <si>
-    <t xml:space="preserve">            This is to certify that  is a bona fied, major in  student of this college and is officially enrolled this  School Year .</t>
-  </si>
-  <si>
     <t>BU-F-UREG-11</t>
   </si>
   <si>
@@ -54,9 +51,6 @@
     <t>Revision: 1</t>
   </si>
   <si>
-    <t xml:space="preserve">            This is to certify that  is a  3rd Year, major in student of this College.  Issued this day of upon the request of for reference purposes.his college and is officially enrolled this  School Year .</t>
-  </si>
-  <si>
     <t xml:space="preserve">           It is further certified that she is of good moral character and has never been subjected to any disciplinary action during her entire stay in this University.</t>
   </si>
   <si>
@@ -70,6 +64,12 @@
   </si>
   <si>
     <t xml:space="preserve">          College of Science</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            This is to certify that  is a  3rd Year, major in student of this College. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Issued this day of upon the request of for reference purposes.</t>
   </si>
 </sst>
 </file>
@@ -528,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B4:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,7 +540,7 @@
     <row r="4" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D4" s="9"/>
       <c r="E4" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
@@ -549,7 +549,7 @@
     <row r="5" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D5" s="9"/>
       <c r="E5" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
@@ -558,7 +558,7 @@
     <row r="6" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D6" s="9"/>
       <c r="E6" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
@@ -570,7 +570,7 @@
     <row r="7" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D7" s="9"/>
       <c r="E7" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
@@ -620,7 +620,7 @@
     </row>
     <row r="20" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="18" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
@@ -646,7 +646,7 @@
     </row>
     <row r="24" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
@@ -678,7 +678,7 @@
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
@@ -728,16 +728,16 @@
     </row>
     <row r="39" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C39" s="5"/>
       <c r="H39" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C40" s="5"/>
     </row>

--- a/static/templates/Good-Moral-Certificate-Template.xlsx
+++ b/static/templates/Good-Moral-Certificate-Template.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{59EE867D-78A0-4008-8BF4-C9C0BE9CCA96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D7227C57-2102-4B39-88BC-5BC773996DE3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,15 +24,89 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Republic of the Philippines</t>
+  </si>
+  <si>
+    <t>Bicol University</t>
+  </si>
+  <si>
+    <t>ISO 9001:2008</t>
+  </si>
+  <si>
+    <t>Certificate No.</t>
+  </si>
+  <si>
+    <t>TUV 100 05 1782</t>
+  </si>
+  <si>
+    <t>CERTIFICATION</t>
+  </si>
+  <si>
+    <t>TO WHOM IT MAY CONCERN:</t>
+  </si>
+  <si>
+    <t>BU-F-UREG-11</t>
+  </si>
+  <si>
+    <t>Revision: 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            This is to certify that  is a, student of this College. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Issued this day of upon the request of  for reference purposes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          It is further certified that is of good moral character and has never been subjected to any disciplinary action during entire stay in this University.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,14 +126,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{7AA32264-3733-4BCF-BCF8-2267628EA318}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -66,6 +163,54 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>866775</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>145455</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96E0661B-4849-4B40-8F3F-87EF54F75382}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1047751" y="485775"/>
+          <a:ext cx="771524" cy="821730"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -85,7 +230,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -97,7 +242,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -144,6 +289,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -179,6 +341,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -330,13 +509,146 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824F6AB3-88E9-429B-9F2E-BC5F5F746EEA}">
+  <dimension ref="A4:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="9" width="14.28515625" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="18" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="5"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="25" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+    </row>
+    <row r="27" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+    </row>
+    <row r="29" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="39" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="B20:G22"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>